--- a/biology/Zoologie/Irène_vierge/Irène_vierge.xlsx
+++ b/biology/Zoologie/Irène_vierge/Irène_vierge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ir%C3%A8ne_vierge</t>
+          <t>Irène_vierge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Irena puella
 L'Irène vierge (Irena puella) aussi appelée Oiseau bleu des fées est une des plus remarquables espèces de passereaux de la famille des irenidés vivant dans l'écozone indomalaise.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ir%C3%A8ne_vierge</t>
+          <t>Irène_vierge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Illustration zoologique, entre 1850 et 1883
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ir%C3%A8ne_vierge</t>
+          <t>Irène_vierge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle comprend deux zones disjointes :
 une première, au sud-ouest de l'Inde (région des Ghâts occidentaux) à laquelle on peut relier les petites populations du Dekkan et celles du Sri Lanka, disparues au cours du XXe siècle,
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ir%C3%A8ne_vierge</t>
+          <t>Irène_vierge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,24 +606,18 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cris et chant
-L'irène vierge émet un chant musical et coulant, notes limpides et percutantes "ouite, ouite" ou "ouite-tu, ouite-tu" ou "huit-kuitut" et "ouat-sit"[1].
+          <t>Cris et chant</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'irène vierge émet un chant musical et coulant, notes limpides et percutantes "ouite, ouite" ou "ouite-tu, ouite-tu" ou "huit-kuitut" et "ouat-sit".
 			Cri de l'Irène vierge 30 secondes
 			cri 1 minute 01 seconde
 			cri 8 secondes
 			cri 13 secondes
 			Cri 39 secondes
-Alimentation
-L'Irène vierge est essentiellement frugivore.
-Elle se nourrit principalement de fruits en haut des grands arbres et de baies. Elle est particulièrement friande des différentes variétés de figues sauvages.
-Cet oiseau apprécie boire aussi le nectar des fleurs des arbres des genres Erythrina et Grevillea.
-Elle avale également quelques insectes dont des termites volants..
-Nidification et élevage des jeunes
-L'oiseau se reproduit vers le printemps de février à avril[2].
-Lors de la parade nuptiale, le mâle tente de séduire la femelle par son chant.
-Le couple d'oiseaux recherche dans une forêt tropicale pluviale le lieu où installer son nid, souvent la fourche d'une branche d'un arbre à environ 5 m au-dessus du sol. Puis la femelle construit un nid en forme de coupe[3] constitué de rameaux secs de 16 à 19 cm de long  sur lequel elle pose de la mousse verte, des racines et des feuilles.
-Elle pond ensuite 2 à 3 œufs gris olive ou blanc verdâtre qu'elle couve une quinzaine de jours.
-Les deux parents nourrissent les oisillons[4].
 </t>
         </is>
       </c>
@@ -618,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ir%C3%A8ne_vierge</t>
+          <t>Irène_vierge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,10 +643,93 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Irène vierge est essentiellement frugivore.
+Elle se nourrit principalement de fruits en haut des grands arbres et de baies. Elle est particulièrement friande des différentes variétés de figues sauvages.
+Cet oiseau apprécie boire aussi le nectar des fleurs des arbres des genres Erythrina et Grevillea.
+Elle avale également quelques insectes dont des termites volants..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Irène_vierge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ir%C3%A8ne_vierge</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nidification et élevage des jeunes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oiseau se reproduit vers le printemps de février à avril.
+Lors de la parade nuptiale, le mâle tente de séduire la femelle par son chant.
+Le couple d'oiseaux recherche dans une forêt tropicale pluviale le lieu où installer son nid, souvent la fourche d'une branche d'un arbre à environ 5 m au-dessus du sol. Puis la femelle construit un nid en forme de coupe constitué de rameaux secs de 16 à 19 cm de long  sur lequel elle pose de la mousse verte, des racines et des feuilles.
+Elle pond ensuite 2 à 3 œufs gris olive ou blanc verdâtre qu'elle couve une quinzaine de jours.
+Les deux parents nourrissent les oisillons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Irène_vierge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ir%C3%A8ne_vierge</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cette espèce comprend 6 sous-espèces :
 Irena puella puella (Latham, 1790) — Sud-ouest et sud de l'Inde, nord-est du sous-continent indien, Myanmar, sud de la Chine (Yunnan), Indochine, Thaïlande (sauf région de Bangkok), nord de la péninsule malaise
